--- a/FoundData/IranDataInvestigation.xlsx
+++ b/FoundData/IranDataInvestigation.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10114"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10311"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ian/Documents/GBAD/Data Quality Insights Project Folder/GBADsDataQualityInsights/FoundData/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7419312-69C2-A044-9287-1B4EBAF8C7C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BF54F1B-9D94-1143-A7EF-6DF812CE3F95}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="21580" xr2:uid="{0AB203AD-D10F-CD43-8156-B20A625F1142}"/>
+    <workbookView xWindow="17280" yWindow="760" windowWidth="17280" windowHeight="21580" xr2:uid="{0AB203AD-D10F-CD43-8156-B20A625F1142}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="44">
   <si>
     <t>Country</t>
   </si>
@@ -120,6 +120,54 @@
   </si>
   <si>
     <t>The attached paper has livestock data from Iran (The Islamic Republic of) and has cows broken down into three or four sub categories (depending on if you count buffalo as cows). If you total them it's over 50 million which is almost 10 times higher than what FAOSTAT is saying for the same year. However, 'Pure cattle' is counted at ~10 million cattle which is much close to what FAOSTAT is quoting for the same time period. It's still 2.6 million higher but is somewhat close.</t>
+  </si>
+  <si>
+    <t>https://reliefweb.int/disaster/fl-2019-000022-irn</t>
+  </si>
+  <si>
+    <t>Pigs</t>
+  </si>
+  <si>
+    <t>1979-1981</t>
+  </si>
+  <si>
+    <t>https://www.britannica.com/event/Iranian-Revolution</t>
+  </si>
+  <si>
+    <t>Cattle, Chickens, Sheep</t>
+  </si>
+  <si>
+    <t>Sheep, Cattle</t>
+  </si>
+  <si>
+    <t>https://reliefweb.int/report/iran-islamic-republic/iran-floods-dec-1986-undro-information-report-1</t>
+  </si>
+  <si>
+    <t>Chickens</t>
+  </si>
+  <si>
+    <t>1987-1988</t>
+  </si>
+  <si>
+    <t xml:space="preserve">In December 1986 and July 1987, Iran was hit with severe rain which caused flash flooding. More than 200 people were reported dead and 40000 went homeless. South and central Iran were the heaviest hit. Given the level of destruction to the country across the two years, we would expect to see an impact on the livestock as they would have been vulnerable to the flooding and rain. FAOSTAT shows a decrease in the cattle and sheep population for this year which is plausible given the recorded weather at the time. </t>
+  </si>
+  <si>
+    <t>In December 1986 and July 1987, Iran was hit with severe rain which caused flash flooding. More than 200 people were reported dead and 40000 went homeless. South and central Iran were the heaviest hit. Given the level of destruction to the country, we would expect to see an impact on the livestock as they would have been vulnerable to the flooding and rain. FAOSTAT shows a substantial increase in the chicken population for this year. Given that the cattle and sheep population fell over this same period, it would be expected that the chicken population would have shown a similar pattern.</t>
+  </si>
+  <si>
+    <t>All</t>
+  </si>
+  <si>
+    <t>https://www.britannica.com/place/Iran/Agriculture-forestry-and-fishing, https://reliefweb.int/report/iran-islamic-republic/iran-floods-nov-1994-un-dha-situation-reports-1-4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">In early 2019, Iran got severe flooding across much of the country. Some provinces got 70 percent of their yearly rain in just 24 hours. Dams overflowed and almost 2000 villages were affected. Given this we would expect to see a reduction in the animal population as it should have negatively affected the animals. However, FAOSTAT shows no impact on the animal populations because the populations do not drop in 2019 or 2020. This is surprising given that there was flooding which would impact livestock who were exposed to it. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">The pig population drops off a cliff after 1979. This could seem like an error but Iran had its Iranian Revolution in 1978 and Muslims do not eat pigs as they are considered a dirty animal. So this dramatic reduction in the pig population makes sense given this political change. </t>
+  </si>
+  <si>
+    <t>In November 1994 Iran had floods that destroyed 250000 HA of farmland. This is a lot of farm land and as a result we would expect to see it impact the livestock. This is because it probably killed livestock grazing on the land, but also reduced the amount of food for the livestock as byproduct of grown food is used as food livestock. However, FAOSTAT shows no impact on the livestock during the flood year or the preceding years. While Iran is 1.648 million square km, a large portion of the country is mountainous and not farmable. So while a small amount of the countries farm land was flooded, we would still expect the population to show some impact to the severe flooding.</t>
   </si>
 </sst>
 </file>
@@ -471,10 +519,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F3249E5C-B703-6E4E-B53E-A36828C07F24}">
-  <dimension ref="A1:G10"/>
+  <dimension ref="A1:G15"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="200" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -709,6 +757,121 @@
         <v>19</v>
       </c>
     </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>7</v>
+      </c>
+      <c r="B11" t="s">
+        <v>32</v>
+      </c>
+      <c r="C11">
+        <v>2019</v>
+      </c>
+      <c r="D11" t="s">
+        <v>10</v>
+      </c>
+      <c r="E11">
+        <v>2</v>
+      </c>
+      <c r="F11" t="s">
+        <v>41</v>
+      </c>
+      <c r="G11" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>7</v>
+      </c>
+      <c r="B12" t="s">
+        <v>29</v>
+      </c>
+      <c r="C12" t="s">
+        <v>30</v>
+      </c>
+      <c r="D12" t="s">
+        <v>10</v>
+      </c>
+      <c r="E12">
+        <v>5</v>
+      </c>
+      <c r="F12" t="s">
+        <v>42</v>
+      </c>
+      <c r="G12" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>7</v>
+      </c>
+      <c r="B13" t="s">
+        <v>33</v>
+      </c>
+      <c r="C13" t="s">
+        <v>36</v>
+      </c>
+      <c r="D13" t="s">
+        <v>10</v>
+      </c>
+      <c r="E13">
+        <v>5</v>
+      </c>
+      <c r="F13" t="s">
+        <v>37</v>
+      </c>
+      <c r="G13" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>7</v>
+      </c>
+      <c r="B14" t="s">
+        <v>35</v>
+      </c>
+      <c r="C14" t="s">
+        <v>36</v>
+      </c>
+      <c r="D14" t="s">
+        <v>10</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+      <c r="F14" t="s">
+        <v>38</v>
+      </c>
+      <c r="G14" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>7</v>
+      </c>
+      <c r="B15" t="s">
+        <v>39</v>
+      </c>
+      <c r="C15">
+        <v>1994</v>
+      </c>
+      <c r="D15" t="s">
+        <v>10</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15" t="s">
+        <v>43</v>
+      </c>
+      <c r="G15" t="s">
+        <v>40</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/FoundData/IranDataInvestigation.xlsx
+++ b/FoundData/IranDataInvestigation.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ian/Documents/GBAD/Data Quality Insights Project Folder/GBADsDataQualityInsights/FoundData/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BF54F1B-9D94-1143-A7EF-6DF812CE3F95}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FDFB698-D76E-5D4A-A709-B8215053637F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="17280" yWindow="760" windowWidth="17280" windowHeight="21580" xr2:uid="{0AB203AD-D10F-CD43-8156-B20A625F1142}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="21580" xr2:uid="{0AB203AD-D10F-CD43-8156-B20A625F1142}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="78">
   <si>
     <t>Country</t>
   </si>
@@ -168,16 +168,126 @@
   </si>
   <si>
     <t>In November 1994 Iran had floods that destroyed 250000 HA of farmland. This is a lot of farm land and as a result we would expect to see it impact the livestock. This is because it probably killed livestock grazing on the land, but also reduced the amount of food for the livestock as byproduct of grown food is used as food livestock. However, FAOSTAT shows no impact on the livestock during the flood year or the preceding years. While Iran is 1.648 million square km, a large portion of the country is mountainous and not farmable. So while a small amount of the countries farm land was flooded, we would still expect the population to show some impact to the severe flooding.</t>
+  </si>
+  <si>
+    <t>Cattle, Sheep</t>
+  </si>
+  <si>
+    <t>1999-2002</t>
+  </si>
+  <si>
+    <t>https://www.un-spider.org/sites/default/files/Iran_booklet_0905_final_small.pdf</t>
+  </si>
+  <si>
+    <t>Between 1999 and 2002, Iran experienced a drought that dried rivers and lakes and reportedly lead to the deaths of 800,000 livestock. Given a multiyear drought of this severity, we would expect to see this impact the livestock population numbers reported by FAOSTAT. FAOSTAT shows a drop in the cattle and sheep numbers during this time which is plausible given the drought.</t>
+  </si>
+  <si>
+    <t>Between 1999 and 2002, Iran experienced a drought that dried rivers and lakes and reportedly lead to the deaths of 800,000 livestock. Given a multiyear drought of this severity, we would expect to see this impact the livestock population numbers reported by FAOSTAT. FAOSTAT shows an increase in the chicken population over this time. There isn't a single year that shows a decrease in the population. This is suprising given that cattle and sheep showed a decrease during this time.</t>
+  </si>
+  <si>
+    <t>Chickens, Cattle, Sheep</t>
+  </si>
+  <si>
+    <t>1970, 1971, 1988, 1989</t>
+  </si>
+  <si>
+    <t xml:space="preserve">These were some of the biggest droughts ever faced by Iran. They are reported to be smaller than the drought faced in 1999. Despite them being smaller droughts, we would still expect to see a negative impact on the livestock populations. The livestock populations did not show any adverse effects from these droughts and actually increased these years. This is suprising given that there was drought occuring. We would expect to see a negative impact. </t>
+  </si>
+  <si>
+    <t>https://journals.ut.ac.ir/pdf_36276_b25d8a53280855e5a10ceedcdda64ed2.html</t>
+  </si>
+  <si>
+    <t>https://www.fao.org/3/ad653e/ad653e55.htm#:~:text=Every%20year%20Iran%20experiences%20pasture,the%20total%20area%20of%20reforestation.</t>
+  </si>
+  <si>
+    <t>In 1994, Iran had it's largest wildfire season which resulted in 33379 hectares burned. A lot of this is grazing land. Given this, we would expect to see an impact on the cattle population. FAOSTAT shows no decrease to the cattle or sheep population for this time. However, the area burned is not clearly defined between grazing land and forests, and it's often stated that the land takes days to reach for fire fighters. So it would be a reasonable assumption to make that not all the burned area was pasture and it had minimal effects on the cattle and sheep population.</t>
+  </si>
+  <si>
+    <t>Cattle, Sheep, Chickens</t>
+  </si>
+  <si>
+    <t>1980-1988</t>
+  </si>
+  <si>
+    <t xml:space="preserve">In the Iran-Iraq war, 1-2 million people died over the course of the 8 year war. Given this level of death and destruction, we would expect to see this impact the livestock population. FAOSTAT reports livestock growth during this period. During the first few years, the populations stagnate or drop but then increase the following years. This is reasonable given most of the fighting occured in areas where there is little farming performed, so the crop and livestock areas would have had minimal impact from the war. So this is possible given events occuring at the time. </t>
+  </si>
+  <si>
+    <t>https://www.britannica.com/event/Iran-Iraq-War, https://www.britannica.com/place/Iran/Agriculture-forestry-and-fishing</t>
+  </si>
+  <si>
+    <t>1989-1993</t>
+  </si>
+  <si>
+    <t>Chickens, Sheep</t>
+  </si>
+  <si>
+    <t xml:space="preserve">In 1989, Iran launched the first development plan. This plan inlcuded investment in the agriculture industry to improve agriculture yields and livestock populations. The whole agriculture sector saw an increase of 5.6 precent annually. We see a increase in the chicken and sheep populations over this time by a significant amount. This makes sense given this increase in support to farmers. </t>
+  </si>
+  <si>
+    <t>In 1989, Iran launched the first development plan. This plan inlcuded investment in the agriculture industry to improve agriculture yields and livestock populations. The whole agriculture sector saw an increase of 5.6 precent annually. We would expect to see an increase in the cattle population over this time. However, the cattle population is stagnent over this period despite all other tracked animals showing an increase over this period so it's unlikely that the cattle population did not increase also.</t>
+  </si>
+  <si>
+    <t>https://ijbds.usb.ac.ir/article_7476_50ba9b241896f01433f6a86cdb9c0248.pdf</t>
+  </si>
+  <si>
+    <t>Chickens, sheep</t>
+  </si>
+  <si>
+    <t>1995-1999</t>
+  </si>
+  <si>
+    <t>In 1995, Iran launched the second development plan with more support for farmers. The second development plan saw a 2.1% yearly growth in agriculture. We would expect to see an increase in the livestock populations given this. FAOSTAT reports a growth in the chicken and sheep population which is plausible given the report used for this stat.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">In 1995, Iran launched the second development plan with more support for farmers. The second development plan saw a 2.1% yearly growth in agriculture. We would expect to see an increase in the livestock populations given this. FAOSTAT reports the cattle population increasing every year in this time period exept 1999 where it drops to 1995 levels. This is suprising given the yearly growth reported in the years earlier. </t>
+  </si>
+  <si>
+    <t>1986-1993</t>
+  </si>
+  <si>
+    <t>2012-2015</t>
+  </si>
+  <si>
+    <t>2017-2020</t>
+  </si>
+  <si>
+    <t xml:space="preserve">In 1986, Iran entered a recession as measured by a reduction in the GDP. The price of oil dropped significantly in 1986 and since Irans economcy is heavily impacted by oil prices, the Iranian economy shrunk during this period. So there's multiple competing factors here. The oil price hurt the Iranian economy which should put pressure on people to reduce meat intake which would affect livestock population numbers. But on the other hand, just because the oil prices dropped, doesn't mean that affected the average Iranian and they might have been fine. So it can be hard to determine what the impacts of this would be on the livestock population. </t>
+  </si>
+  <si>
+    <t>https://tradingeconomics.com/iran/gdp, https://www.macrotrends.net/1369/crude-oil-price-history-chart</t>
+  </si>
+  <si>
+    <t>In 2012 Iran went into another recession. This time it was not from falling oil prices. Given this we would expect to see the populations for more expensive meat producing animals such as cows decrease since people would have less money and could substitute expensive meats for cheaper ones or other sources of protein. FAOSTAT shows a dramatic drop of cows during this time. While some drop would be expected, the drop seen here is extremely large and probably more than what should have actually taken place.</t>
+  </si>
+  <si>
+    <t>In 2012 Iran went into another recession. This time it was not from falling oil prices. Given this we would expect to see the populations for more expensive meat producing animals such as cows decrease since people would have less money and could substitute expensive meats for cheaper ones or other sources of protein such as chicken. FAOSTAT shows an increase in the chicken population over this time. Since chicken is a cheaper meat substitute, this would make sense given market conditions at the time</t>
+  </si>
+  <si>
+    <t>In 2012 Iran went into another recession. This time it was not from falling oil prices. Given this we would expect to see the populations for more expensive meat producing animals such as cows decrease since people would have less money and could substitute expensive meats for cheaper ones or other sources of protein. FAOSTAT shows a massive decrease in the sheep population over this time, then a sharp increase back to nearly the oiginal level. Assuming 2014 was an error, the sheep population shows a general decline during this period which makes sense given sheep is an expensive protein and people would buy less of it during a recession.</t>
+  </si>
+  <si>
+    <t>Sheep, Cattle, Chicken</t>
+  </si>
+  <si>
+    <t xml:space="preserve">In 2017, Iran entered a recession as measured by a reduction in the GDP. The price of oil dropped between 2017 and 2020 and since Irans economcy is heavily impacted by oil prices, the Iranian economy shrunk during this period. So there's multiple competing factors here. The oil price hurt the Iranian economy which should put pressure on people to reduce meat intake which would affect livestock population numbers. But on the other hand, just because the oil prices dropped, doesn't mean that affected the average Iranian and they might have been fine. So it can be hard to determine what the impacts of this would be on the livestock population. </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -200,13 +310,16 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -519,10 +632,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F3249E5C-B703-6E4E-B53E-A36828C07F24}">
-  <dimension ref="A1:G15"/>
+  <dimension ref="A1:G29"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="200" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView tabSelected="1" topLeftCell="A17" zoomScale="200" workbookViewId="0">
+      <selection activeCell="G29" sqref="G29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -872,7 +985,332 @@
         <v>40</v>
       </c>
     </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>7</v>
+      </c>
+      <c r="B16" t="s">
+        <v>44</v>
+      </c>
+      <c r="C16" t="s">
+        <v>45</v>
+      </c>
+      <c r="D16" t="s">
+        <v>10</v>
+      </c>
+      <c r="E16">
+        <v>5</v>
+      </c>
+      <c r="F16" t="s">
+        <v>47</v>
+      </c>
+      <c r="G16" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>7</v>
+      </c>
+      <c r="B17" t="s">
+        <v>35</v>
+      </c>
+      <c r="C17" t="s">
+        <v>45</v>
+      </c>
+      <c r="D17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E17">
+        <v>1</v>
+      </c>
+      <c r="F17" t="s">
+        <v>48</v>
+      </c>
+      <c r="G17" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>7</v>
+      </c>
+      <c r="B18" t="s">
+        <v>49</v>
+      </c>
+      <c r="C18" t="s">
+        <v>50</v>
+      </c>
+      <c r="D18" t="s">
+        <v>10</v>
+      </c>
+      <c r="E18">
+        <v>3</v>
+      </c>
+      <c r="F18" t="s">
+        <v>51</v>
+      </c>
+      <c r="G18" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>7</v>
+      </c>
+      <c r="B19" t="s">
+        <v>44</v>
+      </c>
+      <c r="C19">
+        <v>1994</v>
+      </c>
+      <c r="D19" t="s">
+        <v>10</v>
+      </c>
+      <c r="E19">
+        <v>4</v>
+      </c>
+      <c r="F19" t="s">
+        <v>54</v>
+      </c>
+      <c r="G19" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>7</v>
+      </c>
+      <c r="B20" t="s">
+        <v>55</v>
+      </c>
+      <c r="C20" t="s">
+        <v>56</v>
+      </c>
+      <c r="D20" t="s">
+        <v>10</v>
+      </c>
+      <c r="E20">
+        <v>4</v>
+      </c>
+      <c r="F20" t="s">
+        <v>57</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>7</v>
+      </c>
+      <c r="B21" t="s">
+        <v>60</v>
+      </c>
+      <c r="C21" t="s">
+        <v>59</v>
+      </c>
+      <c r="D21" t="s">
+        <v>10</v>
+      </c>
+      <c r="E21">
+        <v>5</v>
+      </c>
+      <c r="F21" t="s">
+        <v>61</v>
+      </c>
+      <c r="G21" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>7</v>
+      </c>
+      <c r="B22" t="s">
+        <v>8</v>
+      </c>
+      <c r="C22" t="s">
+        <v>59</v>
+      </c>
+      <c r="D22" t="s">
+        <v>10</v>
+      </c>
+      <c r="E22">
+        <v>2</v>
+      </c>
+      <c r="F22" t="s">
+        <v>62</v>
+      </c>
+      <c r="G22" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>7</v>
+      </c>
+      <c r="B23" t="s">
+        <v>64</v>
+      </c>
+      <c r="C23" t="s">
+        <v>65</v>
+      </c>
+      <c r="D23" t="s">
+        <v>10</v>
+      </c>
+      <c r="E23">
+        <v>5</v>
+      </c>
+      <c r="F23" t="s">
+        <v>66</v>
+      </c>
+      <c r="G23" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>7</v>
+      </c>
+      <c r="B24" t="s">
+        <v>8</v>
+      </c>
+      <c r="C24" t="s">
+        <v>65</v>
+      </c>
+      <c r="D24" t="s">
+        <v>10</v>
+      </c>
+      <c r="E24">
+        <v>3</v>
+      </c>
+      <c r="F24" t="s">
+        <v>67</v>
+      </c>
+      <c r="G24" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>7</v>
+      </c>
+      <c r="B25" t="s">
+        <v>55</v>
+      </c>
+      <c r="C25" t="s">
+        <v>68</v>
+      </c>
+      <c r="D25" t="s">
+        <v>10</v>
+      </c>
+      <c r="E25">
+        <v>4</v>
+      </c>
+      <c r="F25" t="s">
+        <v>71</v>
+      </c>
+      <c r="G25" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>7</v>
+      </c>
+      <c r="B26" t="s">
+        <v>8</v>
+      </c>
+      <c r="C26" t="s">
+        <v>69</v>
+      </c>
+      <c r="D26" t="s">
+        <v>10</v>
+      </c>
+      <c r="E26">
+        <v>2</v>
+      </c>
+      <c r="F26" t="s">
+        <v>73</v>
+      </c>
+      <c r="G26" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>7</v>
+      </c>
+      <c r="B27" t="s">
+        <v>20</v>
+      </c>
+      <c r="C27" t="s">
+        <v>69</v>
+      </c>
+      <c r="D27" t="s">
+        <v>10</v>
+      </c>
+      <c r="E27">
+        <v>2</v>
+      </c>
+      <c r="F27" t="s">
+        <v>75</v>
+      </c>
+      <c r="G27" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>7</v>
+      </c>
+      <c r="B28" t="s">
+        <v>35</v>
+      </c>
+      <c r="C28" t="s">
+        <v>69</v>
+      </c>
+      <c r="D28" t="s">
+        <v>10</v>
+      </c>
+      <c r="E28">
+        <v>5</v>
+      </c>
+      <c r="F28" t="s">
+        <v>74</v>
+      </c>
+      <c r="G28" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>7</v>
+      </c>
+      <c r="B29" t="s">
+        <v>76</v>
+      </c>
+      <c r="C29" t="s">
+        <v>70</v>
+      </c>
+      <c r="D29" t="s">
+        <v>10</v>
+      </c>
+      <c r="E29">
+        <v>4</v>
+      </c>
+      <c r="F29" t="s">
+        <v>77</v>
+      </c>
+      <c r="G29" t="s">
+        <v>72</v>
+      </c>
+    </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="G20" r:id="rId1" display="https://www.britannica.com/event/Iran-Iraq-War, " xr:uid="{5091A292-2C6F-D745-AC29-3AC38F4C29D4}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>